--- a/CONTROLE-DE-NOTAS-FISCAIS-MATRIZ/controle_de_notas.xlsx
+++ b/CONTROLE-DE-NOTAS-FISCAIS-MATRIZ/controle_de_notas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40d1c4de46396a3e/Área de Trabalho/Portfólio excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40d1c4de46396a3e/Área de Trabalho/Repositorios git/Portfólio excel/CONTROLE-DE-NOTAS-FISCAIS-MATRIZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="8_{DA5B7377-AB70-4BEB-BFA8-C931F3BFCD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A59B8FF-8DBC-4350-AED6-37FE5B66729A}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="8_{DA5B7377-AB70-4BEB-BFA8-C931F3BFCD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF463A0-A59E-49B6-AD5B-F75CD932EAC6}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{DCBA8B25-65C1-4314-94D7-8C10301D71DD}"/>
   </bookViews>
@@ -817,72 +817,279 @@
   </cellStyles>
   <dxfs count="63">
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
-        <color theme="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFF95D6C"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA3A3"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4E59F"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000&quot;-&quot;00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000&quot;-&quot;00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFF95D6C"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA3A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4E59F"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1194,279 +1401,38 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.34998626667073579"/>
+        <patternFill>
+          <bgColor rgb="FFF95D6C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA3A3"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000&quot;-&quot;00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000&quot;-&quot;00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
+        <patternFill>
+          <bgColor rgb="FFC4E59F"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1742,6 +1708,40 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF95D6C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA3A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4E59F"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2061,6 +2061,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="Retângulo: Cantos Arredondados 48">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCA11E7-AC19-4729-9197-668B50F8BBB2}"/>
@@ -2160,7 +2161,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="Retângulo: Cantos Arredondados 49">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D9AC8C-7E6B-430F-8581-5B9363E93B44}"/>
@@ -2241,7 +2242,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="Retângulo: Cantos Arredondados 50">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48432361-E2C8-4471-AF49-A8C9FBE6AC8B}"/>
@@ -2341,7 +2342,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="52" name="Retângulo: Cantos Arredondados 51">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE433D-D010-4D32-B92C-31E05899E520}"/>
@@ -2441,7 +2442,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="Retângulo: Cantos Arredondados 53">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57323E8-CD4B-427D-AED0-7372E8E972F4}"/>
@@ -5211,19 +5212,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DD84B4CA-ED54-4D67-9EB6-1214193FD6F7}" name="Tabela16" displayName="Tabela16" ref="B4:K47" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DD84B4CA-ED54-4D67-9EB6-1214193FD6F7}" name="Tabela16" displayName="Tabela16" ref="B4:K47" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56">
   <autoFilter ref="B4:K47" xr:uid="{DD84B4CA-ED54-4D67-9EB6-1214193FD6F7}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{51E58EF5-EC4F-44E6-AC7F-50767790E242}" name="UF" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{42ABD18A-53D6-469C-990A-331D4F4E7E64}" name="NF" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{DCE64EBB-1F23-4BEE-9A8D-A07EFD56B427}" name="CFOP" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{8D380BE6-F72F-4C89-861A-E33F66276EB5}" name="EMISSAO" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{27E60BBE-3D86-4F18-8723-6285CDE6062C}" name="CNPJ EMISSOR" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{BDF8B05D-E78C-4C54-94CF-983ED6FD2815}" name="CNPJ-CPF DESTINATARIO" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{FDD6DFA4-3059-4E6A-A66A-684A5575719B}" name="SITUACAO" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{1F1E7DB1-A8F4-49F7-BCFC-DFA5D549E613}" name="TIPO" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{3EE1EE64-B21C-4801-A28A-FFEAE9D1A64B}" name="VALOR" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{1A031BCB-9891-4193-AD67-5D297AE153D6}" name="SISTEMA" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{51E58EF5-EC4F-44E6-AC7F-50767790E242}" name="UF" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{42ABD18A-53D6-469C-990A-331D4F4E7E64}" name="NF" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{DCE64EBB-1F23-4BEE-9A8D-A07EFD56B427}" name="CFOP" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{8D380BE6-F72F-4C89-861A-E33F66276EB5}" name="EMISSAO" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{27E60BBE-3D86-4F18-8723-6285CDE6062C}" name="CNPJ EMISSOR" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{BDF8B05D-E78C-4C54-94CF-983ED6FD2815}" name="CNPJ-CPF DESTINATARIO" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{FDD6DFA4-3059-4E6A-A66A-684A5575719B}" name="SITUACAO" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{1F1E7DB1-A8F4-49F7-BCFC-DFA5D549E613}" name="TIPO" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{3EE1EE64-B21C-4801-A28A-FFEAE9D1A64B}" name="VALOR" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{1A031BCB-9891-4193-AD67-5D297AE153D6}" name="SISTEMA" dataDxfId="46">
       <calculatedColumnFormula>IFERROR(IF(VLOOKUP(Tabela16[[#This Row],[NF]],Tabela3[NF],1,FALSE),"CONSTA","NÃO CONSTA"),"NÃO CONSTA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5232,33 +5233,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D391E4A8-7899-467A-A753-1516AD72F4F8}" name="Tabela3" displayName="Tabela3" ref="B4:F37" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D391E4A8-7899-467A-A753-1516AD72F4F8}" name="Tabela3" displayName="Tabela3" ref="B4:F37" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="B4:F37" xr:uid="{D391E4A8-7899-467A-A753-1516AD72F4F8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{91F9BFE5-7049-4C32-8C71-2028DFBA5793}" name="Entrada" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{91F9BFE5-7049-4C32-8C71-2028DFBA5793}" name="Entrada" dataDxfId="44"/>
     <tableColumn id="2" xr3:uid="{45DC5F34-4CEB-450F-AB74-CBCC3DF4DD5D}" name="NF"/>
     <tableColumn id="3" xr3:uid="{A5BDEE62-DDFB-411A-BAB5-1090DBEDC4E2}" name="Fornecedor"/>
-    <tableColumn id="4" xr3:uid="{DFE01FF0-0BD5-4222-8C45-CE2B4C4C63A3}" name="Vlr. Nota" dataDxfId="47" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{FD968CE5-065E-498F-8C30-D064D59EB325}" name="Data Emissão" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{DFE01FF0-0BD5-4222-8C45-CE2B4C4C63A3}" name="Vlr. Nota" dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{FD968CE5-065E-498F-8C30-D064D59EB325}" name="Data Emissão" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADE4F19F-C8C3-4675-A6C7-57C0E87EC9D2}" name="Tabela162" displayName="Tabela162" ref="B4:K47" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADE4F19F-C8C3-4675-A6C7-57C0E87EC9D2}" name="Tabela162" displayName="Tabela162" ref="B4:K47" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="B4:K47" xr:uid="{DD84B4CA-ED54-4D67-9EB6-1214193FD6F7}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{52E05C71-2257-4F48-B595-779F2BDE7CD9}" name="UF" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{973028E8-5019-44B4-A8A8-4B6F978B8102}" name="NF" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{6CE02A11-613D-4FE1-B74C-E3FA6DF19E73}" name="CFOP" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{18F87427-28D3-4CAC-8E97-6D80B7C2BF91}" name="EMISSAO" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{59C6E072-E84C-4922-8B05-D4C3F910207A}" name="CNPJ EMISSOR" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{AB167339-EC20-45CC-81A3-67C8B8FE7541}" name="CNPJ-CPF DESTINATARIO" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{B7D2CBAF-B1B4-455D-AD3E-C055A8987832}" name="SITUACAO" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{EF256FE0-35D4-4D91-96D5-0C3888511143}" name="TIPO" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{13AFF0EF-BAAD-4005-A425-1CEC1E067A7A}" name="VALOR" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{BC432975-3340-4D1E-B758-96B826DA761A}" name="SISTEMA" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{52E05C71-2257-4F48-B595-779F2BDE7CD9}" name="UF" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{973028E8-5019-44B4-A8A8-4B6F978B8102}" name="NF" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{6CE02A11-613D-4FE1-B74C-E3FA6DF19E73}" name="CFOP" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{18F87427-28D3-4CAC-8E97-6D80B7C2BF91}" name="EMISSAO" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{59C6E072-E84C-4922-8B05-D4C3F910207A}" name="CNPJ EMISSOR" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{AB167339-EC20-45CC-81A3-67C8B8FE7541}" name="CNPJ-CPF DESTINATARIO" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{B7D2CBAF-B1B4-455D-AD3E-C055A8987832}" name="SITUACAO" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{EF256FE0-35D4-4D91-96D5-0C3888511143}" name="TIPO" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{13AFF0EF-BAAD-4005-A425-1CEC1E067A7A}" name="VALOR" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{BC432975-3340-4D1E-B758-96B826DA761A}" name="SISTEMA" dataDxfId="25">
       <calculatedColumnFormula>IFERROR(IF(VLOOKUP(Tabela162[[#This Row],[NF]],Tabela33[NF],1,FALSE),"CONSTA","NÃO CONSTA"),"NÃO CONSTA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5267,33 +5268,33 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C5EAC992-33C6-49DA-B78D-3AF2C94150C0}" name="Tabela33" displayName="Tabela33" ref="B4:F37" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C5EAC992-33C6-49DA-B78D-3AF2C94150C0}" name="Tabela33" displayName="Tabela33" ref="B4:F37" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="B4:F37" xr:uid="{D391E4A8-7899-467A-A753-1516AD72F4F8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ABAED9F2-FB1D-43B8-B5ED-4D5C331B782E}" name="Entrada" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{ABAED9F2-FB1D-43B8-B5ED-4D5C331B782E}" name="Entrada" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{8735A4B7-1756-4ADD-B225-54B0460D18CD}" name="NF"/>
     <tableColumn id="3" xr3:uid="{F2745EC1-DDB2-40D5-AA3C-3495308BFBD1}" name="Fornecedor"/>
-    <tableColumn id="4" xr3:uid="{987B46EF-CD30-4A9A-ACC6-6DC2ED92BE0F}" name="Vlr. Nota" dataDxfId="30" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{F96BD6C0-9556-43E2-98CE-BC672847305E}" name="Data Emissão" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{987B46EF-CD30-4A9A-ACC6-6DC2ED92BE0F}" name="Vlr. Nota" dataDxfId="22" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{F96BD6C0-9556-43E2-98CE-BC672847305E}" name="Data Emissão" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EC3613C3-401D-49E2-A498-C6A6634D2705}" name="Tabela1626" displayName="Tabela1626" ref="B4:K47" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EC3613C3-401D-49E2-A498-C6A6634D2705}" name="Tabela1626" displayName="Tabela1626" ref="B4:K47" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B4:K47" xr:uid="{DD84B4CA-ED54-4D67-9EB6-1214193FD6F7}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{990C14BE-616C-41E9-A414-EC28D5F1E1E5}" name="UF" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{866670FA-6C1D-4365-A3D4-44C10F3F4706}" name="NF" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{9206B282-B6A3-4987-AC16-FCF2129031AB}" name="CFOP" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{8527CEB9-A390-44E3-9E1A-CCE9F465F51E}" name="EMISSAO" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{1FFFDC52-530D-4BEE-B115-FD4785F911CC}" name="CNPJ EMISSOR" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{D5F7CD92-7AA9-4535-BC65-72C1459E1743}" name="CNPJ-CPF DESTINATARIO" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{071FCC13-82B6-4248-8D94-275AF938B895}" name="SITUACAO" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{6809CDC6-498B-4BBA-B1CC-5FE632E8D733}" name="TIPO" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{AC4BC06F-DEE7-45F8-8AE1-25EF62E219D6}" name="VALOR" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{4586BF1F-8EBD-4B69-8AA1-35D44B5C44EE}" name="SISTEMA" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{990C14BE-616C-41E9-A414-EC28D5F1E1E5}" name="UF" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{866670FA-6C1D-4365-A3D4-44C10F3F4706}" name="NF" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{9206B282-B6A3-4987-AC16-FCF2129031AB}" name="CFOP" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{8527CEB9-A390-44E3-9E1A-CCE9F465F51E}" name="EMISSAO" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{1FFFDC52-530D-4BEE-B115-FD4785F911CC}" name="CNPJ EMISSOR" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D5F7CD92-7AA9-4535-BC65-72C1459E1743}" name="CNPJ-CPF DESTINATARIO" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{071FCC13-82B6-4248-8D94-275AF938B895}" name="SITUACAO" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{6809CDC6-498B-4BBA-B1CC-5FE632E8D733}" name="TIPO" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{AC4BC06F-DEE7-45F8-8AE1-25EF62E219D6}" name="VALOR" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{4586BF1F-8EBD-4B69-8AA1-35D44B5C44EE}" name="SISTEMA" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(IF(VLOOKUP(Tabela1626[[#This Row],[NF]],Tabela337[NF],1,FALSE),"CONSTA","NÃO CONSTA"),"NÃO CONSTA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5302,14 +5303,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D79E31D3-F34D-4AFE-8915-3E126FB5DB9B}" name="Tabela337" displayName="Tabela337" ref="B4:F37" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D79E31D3-F34D-4AFE-8915-3E126FB5DB9B}" name="Tabela337" displayName="Tabela337" ref="B4:F37" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B4:F37" xr:uid="{D391E4A8-7899-467A-A753-1516AD72F4F8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{182577C9-3D0D-4565-B34B-EAC13D1B5B3E}" name="Entrada" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{182577C9-3D0D-4565-B34B-EAC13D1B5B3E}" name="Entrada" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75BC9A9A-6899-4538-9B26-04784A1A7CE2}" name="NF"/>
     <tableColumn id="3" xr3:uid="{0190ACDF-669A-4935-B86A-E5971EBCC79E}" name="Fornecedor"/>
-    <tableColumn id="4" xr3:uid="{9AE40F4E-8E60-445E-AA9F-0833EA25ADA7}" name="Vlr. Nota" dataDxfId="13" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{08FA8896-1D4A-4445-834E-EB1B36F5FECD}" name="Data Emissão" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9AE40F4E-8E60-445E-AA9F-0833EA25ADA7}" name="Vlr. Nota" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{08FA8896-1D4A-4445-834E-EB1B36F5FECD}" name="Data Emissão" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5735,7 +5736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA683A07-E609-4E60-857A-7972C43E555D}">
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7295,16 +7298,16 @@
     <mergeCell ref="M9:O9"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:K47">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>$K5="CONSTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>$K5="NÃO CONSTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="60" priority="5">
       <formula>$J5="CONSTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>$J5="NÃO CONSTA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9533,16 +9536,16 @@
     <mergeCell ref="M14:R14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:K47">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>$K5="CONSTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>$K5="NÃO CONSTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>$J5="CONSTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>$J5="NÃO CONSTA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11771,16 +11774,16 @@
     <mergeCell ref="M14:R14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:K47">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$K5="CONSTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$K5="NÃO CONSTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>$J5="CONSTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>$J5="NÃO CONSTA"</formula>
     </cfRule>
   </conditionalFormatting>
